--- a/Uncertainties Dynamic planning under unexpected events/Figures/exps_record/exps_record_all_parallelexp34959parallel3.xlsx
+++ b/Uncertainties Dynamic planning under unexpected events/Figures/exps_record/exps_record_all_parallelexp34959parallel3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK148"/>
+  <dimension ref="A1:AK149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18113,6 +18113,125 @@
         </is>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>34959</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>116</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>4464.885</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1531.755</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
+      <c r="S149" t="n">
+        <v>2562</v>
+      </c>
+      <c r="T149" t="n">
+        <v>102.13</v>
+      </c>
+      <c r="U149" t="n">
+        <v>269</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0</v>
+      </c>
+      <c r="X149" t="n">
+        <v>0.1027905000000011</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>0.7950339</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>4464.885</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>0.7950339</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>0.8978244000000011</v>
+      </c>
+      <c r="AC149" t="inlineStr">
+        <is>
+          <t>laptop</t>
+        </is>
+      </c>
+      <c r="AD149" t="inlineStr">
+        <is>
+          <t>laptop</t>
+        </is>
+      </c>
+      <c r="AE149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK149" t="inlineStr">
+        <is>
+          <t>_sustainable_1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
